--- a/PCB-Legos/LNA/BOM/LNA_Testboard_BOM.xlsx
+++ b/PCB-Legos/LNA/BOM/LNA_Testboard_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\oresat-live-handheld-ground-station\PCB-Legos\LNA\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -152,13 +152,7 @@
     <t>TI</t>
   </si>
   <si>
-    <t>LP2985IM5X-3.3/NOPB</t>
-  </si>
-  <si>
     <t>Linear Voltage Regulator IC  1 Output  150mA SOT-23-5</t>
-  </si>
-  <si>
-    <t>296-18476-2-ND</t>
   </si>
   <si>
     <t>Qorvo</t>
@@ -280,6 +274,12 @@
   </si>
   <si>
     <t>LNA</t>
+  </si>
+  <si>
+    <t>LP2985AIM5-3.3/NOPB</t>
+  </si>
+  <si>
+    <t>926-2985AIM53.3/NOPB</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,17 +629,17 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -690,7 +690,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -702,7 +702,7 @@
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -739,16 +739,16 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -760,7 +760,7 @@
         <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -768,16 +768,16 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -789,7 +789,7 @@
         <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -818,7 +818,7 @@
         <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
@@ -855,19 +855,19 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
         <v>59</v>
       </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
@@ -876,7 +876,7 @@
         <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -918,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -951,7 +951,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -980,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -1018,19 +1018,19 @@
         <v>41</v>
       </c>
       <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" t="s">
         <v>42</v>
-      </c>
-      <c r="F27" t="s">
-        <v>43</v>
       </c>
       <c r="G27" t="s">
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1038,19 +1038,19 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
         <v>45</v>
-      </c>
-      <c r="E29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" t="s">
-        <v>47</v>
       </c>
       <c r="G29" t="s">
         <v>18</v>
@@ -1059,7 +1059,7 @@
         <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1067,19 +1067,19 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s">
         <v>18</v>
@@ -1088,18 +1088,18 @@
         <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
         <v>49</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
